--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance</t>
+    <t>AnimalSurveillanceLM</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
+    <t>https://dhis2.org/fhir/StructureDefinition/AnimalSurveillanceLM</t>
   </si>
   <si>
     <t>Version</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Zoonosis Surveillance</t>
+    <t>Animal Surveillance</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:46:51+00:00</t>
+    <t>2024-04-10T12:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Logical model describing the structure of Zoonosis surveillance.</t>
+    <t>Logical model describing attributes related to animal surveillance.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -252,7 +252,7 @@
 </t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.id</t>
+    <t>AnimalSurveillanceLM.id</t>
   </si>
   <si>
     <t>1</t>
@@ -271,7 +271,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.extension</t>
+    <t>AnimalSurveillanceLM.extension</t>
   </si>
   <si>
     <t>extensions
@@ -308,7 +308,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.modifierExtension</t>
+    <t>AnimalSurveillanceLM.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -331,13 +331,93 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.priorityStatus</t>
+    <t>AnimalSurveillanceLM.animalClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Animal Class</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/animal-class</t>
+  </si>
+  <si>
+    <t>LaboratoryLM</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/StructureDefinition/LaboratoryLM</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Logical model describing laboratory information, including sample identification and test details.</t>
+  </si>
+  <si>
+    <t>LaboratoryLM.id</t>
+  </si>
+  <si>
+    <t>LaboratoryLM.extension</t>
+  </si>
+  <si>
+    <t>LaboratoryLM.modifierExtension</t>
+  </si>
+  <si>
+    <t>LaboratoryLM.animalClass</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
+  </si>
+  <si>
+    <t>Zoonosis Surveillance</t>
+  </si>
+  <si>
+    <t>Logical model describing the structure of Zoonosis surveillance.</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>General Information</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.priorityStatus</t>
   </si>
   <si>
     <t>Priority Status</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.identifier</t>
+    <t>ZoonosisSurveillance.generalInformation.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {elementdefinition-identifier}
@@ -347,7 +427,7 @@
     <t>Event ID</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.observationDate</t>
+    <t>ZoonosisSurveillance.generalInformation.observationDate</t>
   </si>
   <si>
     <t xml:space="preserve">date
@@ -357,26 +437,26 @@
     <t>Observation Date</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.onsetDate</t>
+    <t>ZoonosisSurveillance.generalInformation.onsetDate</t>
   </si>
   <si>
     <t>Onset Date</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.farmerName</t>
+    <t>ZoonosisSurveillance.generalInformation.farmerName</t>
   </si>
   <si>
     <t>Name of Farmer</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.contact</t>
+    <t>ZoonosisSurveillance.generalInformation.contact</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.url</t>
+    <t>ZoonosisSurveillance.generalInformation.url</t>
   </si>
   <si>
     <t xml:space="preserve">url
@@ -386,52 +466,87 @@
     <t>Public URL</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.comment</t>
+    <t>ZoonosisSurveillance.generalInformation.comment</t>
   </si>
   <si>
     <t>General Comment</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.country</t>
+    <t>ZoonosisSurveillance.location</t>
+  </si>
+  <si>
+    <t>Location Information</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.country</t>
   </si>
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.locality</t>
+    <t>ZoonosisSurveillance.location.locality</t>
   </si>
   <si>
     <t>Locality</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.adminLevel1</t>
+    <t>ZoonosisSurveillance.location.adminLevel1</t>
   </si>
   <si>
     <t>Admin Level 1</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.adminLevel2</t>
+    <t>ZoonosisSurveillance.location.adminLevel2</t>
   </si>
   <si>
     <t>Admin Level 2</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.localitySource</t>
+    <t>ZoonosisSurveillance.location.localitySource</t>
   </si>
   <si>
     <t>Locality Source</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.localityQuality</t>
+    <t>ZoonosisSurveillance.location.localityQuality</t>
   </si>
   <si>
     <t>Locality Quality</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.eventCoordinates</t>
+    <t>ZoonosisSurveillance.location.eventCoordinates</t>
   </si>
   <si>
     <t>Event Coordinates</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.animalSurveillance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillanceLM
+</t>
+  </si>
+  <si>
+    <t>Logical Model for Animal Surveillance</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/LaboratoryLM
+</t>
+  </si>
+  <si>
+    <t>Logical Model for Laboratory Information</t>
   </si>
 </sst>
 </file>
@@ -565,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -729,6 +844,314 @@
         <v>34</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -736,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -745,9 +1168,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="37.6875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="21.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.8828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="55.8828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="21.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -771,13 +1194,13 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="40.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="37.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="54.4921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -1329,10 +1752,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>71</v>
@@ -1344,13 +1767,13 @@
         <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1377,13 +1800,11 @@
         <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z6" s="2"/>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>71</v>
@@ -1404,10 +1825,10 @@
         <v>102</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>71</v>
@@ -1418,13 +1839,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1447,13 +1868,13 @@
         <v>71</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1504,7 +1925,7 @@
         <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1513,21 +1934,21 @@
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1538,7 +1959,7 @@
         <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>71</v>
@@ -1550,13 +1971,13 @@
         <v>71</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1607,13 +2028,13 @@
         <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>71</v>
@@ -1624,17 +2045,17 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -1653,15 +2074,17 @@
         <v>71</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
         <v>71</v>
@@ -1698,19 +2121,19 @@
         <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1722,22 +2145,22 @@
         <v>71</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -1750,22 +2173,26 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q10" t="s" s="2">
         <v>71</v>
       </c>
@@ -1813,7 +2240,7 @@
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1825,12 +2252,12 @@
         <v>71</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>114</v>
@@ -1844,10 +2271,10 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>71</v>
@@ -1859,13 +2286,13 @@
         <v>71</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1892,13 +2319,11 @@
         <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z11" s="2"/>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>71</v>
@@ -1919,10 +2344,10 @@
         <v>114</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
@@ -1933,13 +2358,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -1962,10 +2387,10 @@
         <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
         <v>118</v>
@@ -2019,7 +2444,7 @@
         <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -2028,15 +2453,15 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>119</v>
@@ -2053,7 +2478,7 @@
         <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>71</v>
@@ -2068,10 +2493,10 @@
         <v>80</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2122,13 +2547,13 @@
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -2139,17 +2564,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -2168,15 +2593,17 @@
         <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>71</v>
@@ -2213,19 +2640,19 @@
         <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2237,22 +2664,22 @@
         <v>71</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
@@ -2265,22 +2692,26 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q15" t="s" s="2">
         <v>71</v>
       </c>
@@ -2328,7 +2759,7 @@
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2340,18 +2771,18 @@
         <v>71</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2362,7 +2793,7 @@
         <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>71</v>
@@ -2374,13 +2805,13 @@
         <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2431,30 +2862,30 @@
         <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2465,7 +2896,7 @@
         <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>71</v>
@@ -2480,10 +2911,10 @@
         <v>80</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2534,13 +2965,13 @@
         <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>71</v>
@@ -2551,17 +2982,17 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
@@ -2580,15 +3011,17 @@
         <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>71</v>
@@ -2625,19 +3058,19 @@
         <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2649,22 +3082,22 @@
         <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -2677,22 +3110,26 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q19" t="s" s="2">
         <v>71</v>
       </c>
@@ -2740,7 +3177,7 @@
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2752,18 +3189,18 @@
         <v>71</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2774,7 +3211,7 @@
         <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>71</v>
@@ -2789,10 +3226,10 @@
         <v>80</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -2843,18 +3280,2084 @@
         <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AH20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI20" t="s" s="2">
+      <c r="C22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="I30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="173">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:05:41+00:00</t>
+    <t>2024-04-10T12:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,10 +371,10 @@
     <t>LaboratoryLM.animalClass</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance</t>
-  </si>
-  <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
+    <t>ZoonosisSurveillanceLM</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillanceLM</t>
   </si>
   <si>
     <t>Zoonosis Surveillance</t>
@@ -383,16 +383,16 @@
     <t>Logical model describing the structure of Zoonosis surveillance.</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.id</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.extension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.modifierExtension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.generalInformation</t>
+    <t>ZoonosisSurveillanceLM.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.generalInformation</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -402,22 +402,22 @@
     <t>General Information</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.generalInformation.id</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.generalInformation.extension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.generalInformation.modifierExtension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.generalInformation.priorityStatus</t>
+    <t>ZoonosisSurveillanceLM.generalInformation.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.generalInformation.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.generalInformation.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.generalInformation.priorityStatus</t>
   </si>
   <si>
     <t>Priority Status</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.generalInformation.identifier</t>
+    <t>ZoonosisSurveillanceLM.generalInformation.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {elementdefinition-identifier}
@@ -427,7 +427,7 @@
     <t>Event ID</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.generalInformation.observationDate</t>
+    <t>ZoonosisSurveillanceLM.generalInformation.observationDate</t>
   </si>
   <si>
     <t xml:space="preserve">date
@@ -437,26 +437,26 @@
     <t>Observation Date</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.generalInformation.onsetDate</t>
+    <t>ZoonosisSurveillanceLM.generalInformation.onsetDate</t>
   </si>
   <si>
     <t>Onset Date</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.generalInformation.farmerName</t>
+    <t>ZoonosisSurveillanceLM.generalInformation.farmerName</t>
   </si>
   <si>
     <t>Name of Farmer</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.generalInformation.contact</t>
+    <t>ZoonosisSurveillanceLM.generalInformation.contact</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.generalInformation.url</t>
+    <t>ZoonosisSurveillanceLM.generalInformation.url</t>
   </si>
   <si>
     <t xml:space="preserve">url
@@ -466,70 +466,73 @@
     <t>Public URL</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.generalInformation.comment</t>
+    <t>ZoonosisSurveillanceLM.generalInformation.comment</t>
   </si>
   <si>
     <t>General Comment</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.location</t>
+    <t>ZoonosisSurveillanceLM.location</t>
   </si>
   <si>
     <t>Location Information</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.location.id</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.location.extension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.location.modifierExtension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillance.location.country</t>
+    <t>ZoonosisSurveillanceLM.location.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.location.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.location.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.location.country</t>
   </si>
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.location.locality</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-Country</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillanceLM.location.locality</t>
   </si>
   <si>
     <t>Locality</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.location.adminLevel1</t>
+    <t>ZoonosisSurveillanceLM.location.adminLevel1</t>
   </si>
   <si>
     <t>Admin Level 1</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.location.adminLevel2</t>
+    <t>ZoonosisSurveillanceLM.location.adminLevel2</t>
   </si>
   <si>
     <t>Admin Level 2</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.location.localitySource</t>
+    <t>ZoonosisSurveillanceLM.location.localitySource</t>
   </si>
   <si>
     <t>Locality Source</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.location.localityQuality</t>
+    <t>ZoonosisSurveillanceLM.location.localityQuality</t>
   </si>
   <si>
     <t>Locality Quality</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.location.eventCoordinates</t>
+    <t>ZoonosisSurveillanceLM.location.eventCoordinates</t>
   </si>
   <si>
     <t>Event Coordinates</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.animalSurveillance</t>
+    <t>ZoonosisSurveillanceLM.animalSurveillance</t>
   </si>
   <si>
     <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillanceLM
@@ -539,7 +542,7 @@
     <t>Logical Model for Animal Surveillance</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.laboratory</t>
+    <t>ZoonosisSurveillanceLM.laboratory</t>
   </si>
   <si>
     <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/LaboratoryLM
@@ -1168,9 +1171,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.8828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="55.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="23.08984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="58.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="58.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="21.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1194,13 +1197,13 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="40.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="44.3828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="54.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="57.09375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -4465,7 +4468,7 @@
         <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>153</v>
@@ -4498,13 +4501,11 @@
         <v>71</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z32" s="2"/>
       <c r="AA32" t="s" s="2">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>71</v>
@@ -4542,10 +4543,10 @@
         <v>115</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4571,10 +4572,10 @@
         <v>80</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4625,7 +4626,7 @@
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -4645,10 +4646,10 @@
         <v>115</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4674,10 +4675,10 @@
         <v>80</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4728,7 +4729,7 @@
         <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4748,10 +4749,10 @@
         <v>115</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4777,10 +4778,10 @@
         <v>80</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4831,7 +4832,7 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -4851,10 +4852,10 @@
         <v>115</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4880,10 +4881,10 @@
         <v>80</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4934,7 +4935,7 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -4954,10 +4955,10 @@
         <v>115</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4983,10 +4984,10 @@
         <v>80</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5037,7 +5038,7 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -5057,10 +5058,10 @@
         <v>115</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5086,10 +5087,10 @@
         <v>80</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5140,7 +5141,7 @@
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -5160,10 +5161,10 @@
         <v>115</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5186,13 +5187,13 @@
         <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5243,7 +5244,7 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -5263,10 +5264,10 @@
         <v>115</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5289,13 +5290,13 @@
         <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5346,7 +5347,7 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="174">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:38:22+00:00</t>
+    <t>2024-04-10T12:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>Admin Level 1</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/regions-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillanceLM.location.adminLevel2</t>
@@ -4672,7 +4675,7 @@
         <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>158</v>
@@ -4705,13 +4708,11 @@
         <v>71</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z34" s="2"/>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>71</v>
@@ -4749,10 +4750,10 @@
         <v>115</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4778,10 +4779,10 @@
         <v>80</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4832,7 +4833,7 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -4852,10 +4853,10 @@
         <v>115</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4881,10 +4882,10 @@
         <v>80</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4935,7 +4936,7 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -4955,10 +4956,10 @@
         <v>115</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4984,10 +4985,10 @@
         <v>80</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5038,7 +5039,7 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -5058,10 +5059,10 @@
         <v>115</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5087,10 +5088,10 @@
         <v>80</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5141,7 +5142,7 @@
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -5161,10 +5162,10 @@
         <v>115</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5187,13 +5188,13 @@
         <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5244,7 +5245,7 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -5264,10 +5265,10 @@
         <v>115</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5290,13 +5291,13 @@
         <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5347,7 +5348,7 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="177">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>AnimalSurveillanceLM</t>
+    <t>AnimalSurveillance</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/AnimalSurveillanceLM</t>
+    <t>https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance</t>
   </si>
   <si>
     <t>Version</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Animal Surveillance</t>
+    <t>Logical Model - Animal Surveillance</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:47:47+00:00</t>
+    <t>2024-04-10T14:10:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,7 +252,7 @@
 </t>
   </si>
   <si>
-    <t>AnimalSurveillanceLM.id</t>
+    <t>AnimalSurveillance.id</t>
   </si>
   <si>
     <t>1</t>
@@ -271,7 +271,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>AnimalSurveillanceLM.extension</t>
+    <t>AnimalSurveillance.extension</t>
   </si>
   <si>
     <t>extensions
@@ -308,7 +308,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>AnimalSurveillanceLM.modifierExtension</t>
+    <t>AnimalSurveillance.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -331,7 +331,7 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>AnimalSurveillanceLM.animalClass</t>
+    <t>AnimalSurveillance.animalClass</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -347,52 +347,52 @@
     <t>https://dhis2.org/fhir/ValueSet/animal-class</t>
   </si>
   <si>
-    <t>LaboratoryLM</t>
-  </si>
-  <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/LaboratoryLM</t>
-  </si>
-  <si>
     <t>Laboratory</t>
   </si>
   <si>
+    <t>https://dhis2.org/fhir/StructureDefinition/Laboratory</t>
+  </si>
+  <si>
+    <t>Logical Model - Laboratory</t>
+  </si>
+  <si>
     <t>Logical model describing laboratory information, including sample identification and test details.</t>
   </si>
   <si>
-    <t>LaboratoryLM.id</t>
-  </si>
-  <si>
-    <t>LaboratoryLM.extension</t>
-  </si>
-  <si>
-    <t>LaboratoryLM.modifierExtension</t>
-  </si>
-  <si>
-    <t>LaboratoryLM.animalClass</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM</t>
-  </si>
-  <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillanceLM</t>
-  </si>
-  <si>
-    <t>Zoonosis Surveillance</t>
+    <t>Laboratory.id</t>
+  </si>
+  <si>
+    <t>Laboratory.extension</t>
+  </si>
+  <si>
+    <t>Laboratory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Laboratory.animalClass</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
+  </si>
+  <si>
+    <t>Logical Model - Zoonosis Surveillance</t>
   </si>
   <si>
     <t>Logical model describing the structure of Zoonosis surveillance.</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.id</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.extension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.modifierExtension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.generalInformation</t>
+    <t>ZoonosisSurveillance.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -402,22 +402,22 @@
     <t>General Information</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.id</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.extension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.modifierExtension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.priorityStatus</t>
+    <t>ZoonosisSurveillance.generalInformation.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.priorityStatus</t>
   </si>
   <si>
     <t>Priority Status</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.identifier</t>
+    <t>ZoonosisSurveillance.generalInformation.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {elementdefinition-identifier}
@@ -427,7 +427,7 @@
     <t>Event ID</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.observationDate</t>
+    <t>ZoonosisSurveillance.generalInformation.observationDate</t>
   </si>
   <si>
     <t xml:space="preserve">date
@@ -437,26 +437,26 @@
     <t>Observation Date</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.onsetDate</t>
+    <t>ZoonosisSurveillance.generalInformation.onsetDate</t>
   </si>
   <si>
     <t>Onset Date</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.farmerName</t>
+    <t>ZoonosisSurveillance.generalInformation.farmerName</t>
   </si>
   <si>
     <t>Name of Farmer</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.contact</t>
+    <t>ZoonosisSurveillance.generalInformation.contact</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.url</t>
+    <t>ZoonosisSurveillance.generalInformation.url</t>
   </si>
   <si>
     <t xml:space="preserve">url
@@ -466,28 +466,28 @@
     <t>Public URL</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.generalInformation.comment</t>
+    <t>ZoonosisSurveillance.generalInformation.comment</t>
   </si>
   <si>
     <t>General Comment</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.location</t>
+    <t>ZoonosisSurveillance.location</t>
   </si>
   <si>
     <t>Location Information</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.location.id</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.location.extension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.location.modifierExtension</t>
-  </si>
-  <si>
-    <t>ZoonosisSurveillanceLM.location.country</t>
+    <t>ZoonosisSurveillance.location.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.country</t>
   </si>
   <si>
     <t>Country</t>
@@ -496,13 +496,13 @@
     <t>http://terminology.hl7.org/ValueSet/v3-Country</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.location.locality</t>
+    <t>ZoonosisSurveillance.location.locality</t>
   </si>
   <si>
     <t>Locality</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.location.adminLevel1</t>
+    <t>ZoonosisSurveillance.location.adminLevel1</t>
   </si>
   <si>
     <t>Admin Level 1</t>
@@ -511,44 +511,53 @@
     <t>https://dhis2.org/fhir/ValueSet/regions-vs</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.location.adminLevel2</t>
+    <t>ZoonosisSurveillance.location.adminLevel2</t>
   </si>
   <si>
     <t>Admin Level 2</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.location.localitySource</t>
+    <t>https://dhis2.org/fhir/ValueSet/districts-vs</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.localitySource</t>
   </si>
   <si>
     <t>Locality Source</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.location.localityQuality</t>
+    <t>https://dhis2.org/fhir/ValueSet/locality-source-vs</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.localityQuality</t>
   </si>
   <si>
     <t>Locality Quality</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.location.eventCoordinates</t>
+    <t>https://dhis2.org/fhir/ValueSet/locality-quality-vs</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.eventCoordinates</t>
   </si>
   <si>
     <t>Event Coordinates</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.animalSurveillance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillanceLM
+    <t>ZoonosisSurveillance.animalSurveillance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance
 </t>
   </si>
   <si>
     <t>Logical Model for Animal Surveillance</t>
   </si>
   <si>
-    <t>ZoonosisSurveillanceLM.laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/LaboratoryLM
+    <t>ZoonosisSurveillance.laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/Laboratory
 </t>
   </si>
   <si>
@@ -1174,9 +1183,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.48828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="58.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="20.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.8828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="55.8828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="21.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1200,13 +1209,13 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="44.3828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="45.5234375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="57.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="54.4921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -4776,7 +4785,7 @@
         <v>71</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>161</v>
@@ -4809,13 +4818,11 @@
         <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z35" s="2"/>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>71</v>
@@ -4853,10 +4860,10 @@
         <v>115</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4879,13 +4886,13 @@
         <v>71</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4912,13 +4919,11 @@
         <v>71</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z36" s="2"/>
       <c r="AA36" t="s" s="2">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>71</v>
@@ -4936,7 +4941,7 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -4956,10 +4961,10 @@
         <v>115</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4982,13 +4987,13 @@
         <v>71</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5015,13 +5020,11 @@
         <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z37" s="2"/>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>71</v>
@@ -5039,7 +5042,7 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -5059,10 +5062,10 @@
         <v>115</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5088,10 +5091,10 @@
         <v>80</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5142,7 +5145,7 @@
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -5162,10 +5165,10 @@
         <v>115</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5188,13 +5191,13 @@
         <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5245,7 +5248,7 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -5265,10 +5268,10 @@
         <v>115</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5291,13 +5294,13 @@
         <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5348,7 +5351,7 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:13:50+00:00</t>
+    <t>2024-04-11T10:33:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,7 +344,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-class</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
   </si>
   <si>
     <t>Laboratory</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="183">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:33:02+00:00</t>
+    <t>2024-04-11T10:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -345,6 +345,24 @@
   </si>
   <si>
     <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalSpecies</t>
+  </si>
+  <si>
+    <t>Animal Species</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalType</t>
+  </si>
+  <si>
+    <t>Animal Type</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
   </si>
   <si>
     <t>Laboratory</t>
@@ -872,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
@@ -880,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -896,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -904,7 +922,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -950,7 +968,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -986,7 +1004,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -1026,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -1034,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -1050,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -1058,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -1104,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
@@ -1140,7 +1158,7 @@
         <v>28</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
@@ -1174,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AK42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1209,7 +1227,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="45.5234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="45.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1854,7 +1872,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>107</v>
@@ -1871,7 +1889,7 @@
         <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>71</v>
@@ -1883,13 +1901,13 @@
         <v>71</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1916,13 +1934,11 @@
         <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z7" s="2"/>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>71</v>
@@ -1940,30 +1956,30 @@
         <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1986,13 +2002,13 @@
         <v>71</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2019,13 +2035,11 @@
         <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z8" s="2"/>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>71</v>
@@ -2043,7 +2057,7 @@
         <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -2060,17 +2074,17 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2089,17 +2103,15 @@
         <v>71</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
         <v>71</v>
@@ -2136,19 +2148,19 @@
         <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -2157,57 +2169,53 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P10" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
         <v>71</v>
       </c>
@@ -2255,41 +2263,41 @@
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>71</v>
@@ -2301,15 +2309,17 @@
         <v>71</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
         <v>71</v>
@@ -2334,56 +2344,58 @@
         <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z11" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA11" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
@@ -2396,22 +2408,26 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2459,7 +2475,7 @@
         <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -2468,21 +2484,21 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2490,7 +2506,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -2505,13 +2521,13 @@
         <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2538,13 +2554,11 @@
         <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z13" s="2"/>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>71</v>
@@ -2562,10 +2576,10 @@
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
@@ -2579,17 +2593,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -2608,17 +2622,15 @@
         <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>71</v>
@@ -2655,19 +2667,19 @@
         <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2676,57 +2688,53 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>71</v>
       </c>
@@ -2774,41 +2782,41 @@
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>71</v>
@@ -2820,15 +2828,17 @@
         <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>71</v>
@@ -2865,74 +2875,78 @@
         <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q17" t="s" s="2">
         <v>71</v>
       </c>
@@ -2980,41 +2994,41 @@
         <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>71</v>
@@ -3026,17 +3040,15 @@
         <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>71</v>
@@ -3073,78 +3085,74 @@
         <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P19" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>71</v>
       </c>
@@ -3192,41 +3200,41 @@
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>71</v>
@@ -3238,15 +3246,17 @@
         <v>71</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>71</v>
@@ -3283,74 +3293,78 @@
         <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q21" t="s" s="2">
         <v>71</v>
       </c>
@@ -3398,30 +3412,30 @@
         <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3444,7 +3458,7 @@
         <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>135</v>
@@ -3501,7 +3515,7 @@
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3518,7 +3532,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>136</v>
@@ -3547,13 +3561,13 @@
         <v>71</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3621,13 +3635,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3650,13 +3664,13 @@
         <v>71</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3707,7 +3721,7 @@
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3724,13 +3738,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3753,13 +3767,13 @@
         <v>71</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -3810,7 +3824,7 @@
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3827,13 +3841,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3856,13 +3870,13 @@
         <v>71</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -3913,7 +3927,7 @@
         <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
@@ -3930,13 +3944,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3959,13 +3973,13 @@
         <v>71</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4016,7 +4030,7 @@
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
@@ -4033,13 +4047,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4062,13 +4076,13 @@
         <v>71</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4119,7 +4133,7 @@
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
@@ -4131,18 +4145,18 @@
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4168,10 +4182,10 @@
         <v>80</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4222,7 +4236,7 @@
         <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
@@ -4239,24 +4253,24 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>71</v>
@@ -4268,17 +4282,15 @@
         <v>71</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>71</v>
@@ -4315,78 +4327,74 @@
         <v>71</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>71</v>
       </c>
@@ -4434,41 +4442,41 @@
         <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>71</v>
@@ -4480,15 +4488,17 @@
         <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>71</v>
@@ -4513,84 +4523,90 @@
         <v>71</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z32" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA32" t="s" s="2">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q33" t="s" s="2">
         <v>71</v>
       </c>
@@ -4638,30 +4654,30 @@
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4687,10 +4703,10 @@
         <v>103</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4721,7 +4737,7 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>71</v>
@@ -4739,7 +4755,7 @@
         <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4756,13 +4772,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4785,13 +4801,13 @@
         <v>71</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4818,11 +4834,13 @@
         <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA35" t="s" s="2">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>71</v>
@@ -4840,7 +4858,7 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -4857,7 +4875,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>163</v>
@@ -4958,7 +4976,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>166</v>
@@ -5059,7 +5077,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>169</v>
@@ -5088,7 +5106,7 @@
         <v>71</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>170</v>
@@ -5121,13 +5139,11 @@
         <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z38" s="2"/>
       <c r="AA38" t="s" s="2">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>71</v>
@@ -5162,13 +5178,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5179,7 +5195,7 @@
         <v>72</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>71</v>
@@ -5191,7 +5207,7 @@
         <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>173</v>
@@ -5224,13 +5240,11 @@
         <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z39" s="2"/>
       <c r="AA39" t="s" s="2">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>71</v>
@@ -5248,13 +5262,13 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>71</v>
@@ -5265,13 +5279,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5282,7 +5296,7 @@
         <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>71</v>
@@ -5294,7 +5308,7 @@
         <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>176</v>
@@ -5351,18 +5365,224 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="243">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:34:35+00:00</t>
+    <t>2024-04-11T13:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -363,6 +363,187 @@
   </si>
   <si>
     <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsAtRisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count
+</t>
+  </si>
+  <si>
+    <t>Animals at Risk</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsCases</t>
+  </si>
+  <si>
+    <t>Animals Cases</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsDeaths</t>
+  </si>
+  <si>
+    <t>Animals Deaths</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsDestroyed</t>
+  </si>
+  <si>
+    <t>Animals Destroyed</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsSlaughtered</t>
+  </si>
+  <si>
+    <t>Animals Slaughtered</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.vaccination</t>
+  </si>
+  <si>
+    <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.vaccinated</t>
+  </si>
+  <si>
+    <t>Number of vaccinated animals</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.productionSystemOne</t>
+  </si>
+  <si>
+    <t>Production System One</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/production-system-one-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.productionSystemTwo</t>
+  </si>
+  <si>
+    <t>Production System Two</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/production-system-two-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSigns</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Clinical signs. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/clinical-signs-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.necropsyLesions</t>
+  </si>
+  <si>
+    <t>Necropsy lesions. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/necropsy-lesions-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceType</t>
+  </si>
+  <si>
+    <t>Surveillance Type.  PASSIVE | ROUTINE | ACTIVE | PDS | CAHO | GDS | SENTINEL</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/surveillance-type-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.infectionSource</t>
+  </si>
+  <si>
+    <t>Infection Source</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diseaseStatus</t>
+  </si>
+  <si>
+    <t>Disease Status. CONFIRMED | DENIED | SUSPECTED</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/disease-status-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.disease</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/diseases-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diseaseSubTypes</t>
+  </si>
+  <si>
+    <t>Disease Subtype(s)</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/disease-subtype-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clade</t>
+  </si>
+  <si>
+    <t>Clade</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/clade-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosticSource</t>
+  </si>
+  <si>
+    <t>Diagnostic Source</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/diagnostic-source-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosisBasis</t>
+  </si>
+  <si>
+    <t>Diagnosis Basis. CLINICAL_SIGNS | NECROPSY_LESIONS | LABORATORY_TEST | OTHERS</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/diagnosis-basis-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasures</t>
+  </si>
+  <si>
+    <t>Control Measure. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/control-measures-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.treatments</t>
+  </si>
+  <si>
+    <t>Treatments. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/treatments-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.comment</t>
+  </si>
+  <si>
+    <t>Animal Surveillance Comments</t>
   </si>
   <si>
     <t>Laboratory</t>
@@ -890,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -898,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24">
@@ -914,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
@@ -922,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
@@ -968,7 +1149,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>116</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
@@ -1004,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38">
@@ -1044,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43">
@@ -1052,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44">
@@ -1068,7 +1249,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -1076,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47">
@@ -1122,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>124</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53">
@@ -1158,7 +1339,7 @@
         <v>28</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58">
@@ -1192,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK42"/>
+  <dimension ref="A1:AK64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1227,7 +1408,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="45.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="53.25390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2074,7 +2255,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>113</v>
@@ -2091,7 +2272,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>71</v>
@@ -2103,13 +2284,13 @@
         <v>71</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
         <v>115</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2160,30 +2341,30 @@
         <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2206,13 +2387,13 @@
         <v>71</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2263,7 +2444,7 @@
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -2280,7 +2461,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>118</v>
@@ -2290,14 +2471,14 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>71</v>
@@ -2309,17 +2490,15 @@
         <v>71</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
         <v>71</v>
@@ -2356,78 +2535,74 @@
         <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2475,30 +2650,30 @@
         <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2506,7 +2681,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -2521,13 +2696,13 @@
         <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2554,11 +2729,13 @@
         <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z13" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA13" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>71</v>
@@ -2576,10 +2753,10 @@
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
@@ -2593,13 +2770,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2610,7 +2787,7 @@
         <v>72</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>71</v>
@@ -2622,13 +2799,13 @@
         <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2655,13 +2832,11 @@
         <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z14" s="2"/>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>71</v>
@@ -2679,30 +2854,30 @@
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2725,13 +2900,13 @@
         <v>71</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -2782,7 +2957,7 @@
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2799,24 +2974,24 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>71</v>
@@ -2828,17 +3003,15 @@
         <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>71</v>
@@ -2863,90 +3036,84 @@
         <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z16" s="2"/>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>71</v>
       </c>
@@ -2970,13 +3137,11 @@
         <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z17" s="2"/>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>71</v>
@@ -2994,30 +3159,30 @@
         <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3028,7 +3193,7 @@
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>71</v>
@@ -3040,13 +3205,13 @@
         <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3073,13 +3238,11 @@
         <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z18" s="2"/>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>71</v>
@@ -3097,30 +3260,30 @@
         <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3131,7 +3294,7 @@
         <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>71</v>
@@ -3143,13 +3306,13 @@
         <v>71</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3176,13 +3339,11 @@
         <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z19" s="2"/>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>71</v>
@@ -3200,13 +3361,13 @@
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>71</v>
@@ -3217,24 +3378,24 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>71</v>
@@ -3246,17 +3407,15 @@
         <v>71</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>71</v>
@@ -3281,90 +3440,84 @@
         <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z20" s="2"/>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>71</v>
       </c>
@@ -3412,30 +3565,30 @@
         <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3458,13 +3611,13 @@
         <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3491,13 +3644,11 @@
         <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z22" s="2"/>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>71</v>
@@ -3515,7 +3666,7 @@
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3532,13 +3683,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3561,13 +3712,13 @@
         <v>71</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3594,13 +3745,11 @@
         <v>71</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z23" s="2"/>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>71</v>
@@ -3618,7 +3767,7 @@
         <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -3635,13 +3784,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3652,7 +3801,7 @@
         <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>71</v>
@@ -3664,13 +3813,13 @@
         <v>71</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3697,13 +3846,11 @@
         <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z24" s="2"/>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>71</v>
@@ -3721,13 +3868,13 @@
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>71</v>
@@ -3738,13 +3885,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3767,13 +3914,13 @@
         <v>71</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -3800,13 +3947,11 @@
         <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z25" s="2"/>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>71</v>
@@ -3824,7 +3969,7 @@
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3841,13 +3986,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3870,13 +4015,13 @@
         <v>71</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -3903,13 +4048,11 @@
         <v>71</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z26" s="2"/>
       <c r="AA26" t="s" s="2">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>71</v>
@@ -3927,7 +4070,7 @@
         <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
@@ -3944,13 +4087,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3973,13 +4116,13 @@
         <v>71</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4006,13 +4149,11 @@
         <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z27" s="2"/>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>71</v>
@@ -4030,7 +4171,7 @@
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
@@ -4047,13 +4188,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4064,7 +4205,7 @@
         <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>71</v>
@@ -4076,13 +4217,13 @@
         <v>71</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4109,13 +4250,11 @@
         <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z28" s="2"/>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>71</v>
@@ -4133,13 +4272,13 @@
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>71</v>
@@ -4150,13 +4289,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4167,7 +4306,7 @@
         <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>71</v>
@@ -4179,13 +4318,13 @@
         <v>71</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4212,13 +4351,11 @@
         <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z29" s="2"/>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>71</v>
@@ -4236,13 +4373,13 @@
         <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>71</v>
@@ -4253,13 +4390,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4282,13 +4419,13 @@
         <v>71</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4339,7 +4476,7 @@
         <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
@@ -4351,18 +4488,18 @@
         <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4373,7 +4510,7 @@
         <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>71</v>
@@ -4385,13 +4522,13 @@
         <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4442,41 +4579,41 @@
         <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>71</v>
@@ -4488,17 +4625,15 @@
         <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>71</v>
@@ -4535,46 +4670,46 @@
         <v>71</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -4587,26 +4722,24 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>71</v>
       </c>
@@ -4642,19 +4775,19 @@
         <v>71</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -4671,45 +4804,49 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q34" t="s" s="2">
         <v>71</v>
       </c>
@@ -4733,11 +4870,13 @@
         <v>71</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z34" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA34" t="s" s="2">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>71</v>
@@ -4755,30 +4894,30 @@
         <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4786,7 +4925,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -4801,13 +4940,13 @@
         <v>71</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4834,13 +4973,11 @@
         <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z35" s="2"/>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>71</v>
@@ -4858,10 +4995,10 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -4875,13 +5012,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4892,7 +5029,7 @@
         <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>71</v>
@@ -4904,13 +5041,13 @@
         <v>71</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4937,11 +5074,13 @@
         <v>71</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z36" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA36" t="s" s="2">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>71</v>
@@ -4959,30 +5098,30 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5005,13 +5144,13 @@
         <v>71</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5038,11 +5177,13 @@
         <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z37" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA37" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>71</v>
@@ -5060,7 +5201,7 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -5077,24 +5218,24 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>71</v>
@@ -5106,15 +5247,17 @@
         <v>71</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>71</v>
@@ -5139,84 +5282,90 @@
         <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z38" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA38" t="s" s="2">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q39" t="s" s="2">
         <v>71</v>
       </c>
@@ -5240,11 +5389,13 @@
         <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z39" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA39" t="s" s="2">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>71</v>
@@ -5262,30 +5413,30 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5308,13 +5459,13 @@
         <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5365,7 +5516,7 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -5377,18 +5528,18 @@
         <v>71</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5399,7 +5550,7 @@
         <v>72</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>71</v>
@@ -5411,13 +5562,13 @@
         <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5468,13 +5619,13 @@
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>71</v>
@@ -5485,17 +5636,17 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -5514,15 +5665,17 @@
         <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>71</v>
@@ -5559,19 +5712,19 @@
         <v>71</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
@@ -5583,6 +5736,2272 @@
         <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z56" s="2"/>
+      <c r="AA56" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z58" s="2"/>
+      <c r="AA58" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z59" s="2"/>
+      <c r="AA59" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z60" s="2"/>
+      <c r="AA60" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z61" s="2"/>
+      <c r="AA61" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="267">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:02:26+00:00</t>
+    <t>2024-04-12T09:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -331,6 +331,16 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
+    <t>AnimalSurveillance.reportingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Reporting Date</t>
+  </si>
+  <si>
     <t>AnimalSurveillance.animalClass</t>
   </si>
   <si>
@@ -567,7 +577,73 @@
     <t>Laboratory.modifierExtension</t>
   </si>
   <si>
-    <t>Laboratory.animalClass</t>
+    <t>Laboratory.reportingDate</t>
+  </si>
+  <si>
+    <t>Laboratory.laboratory</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/laboratory-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.otherLaboratory</t>
+  </si>
+  <si>
+    <t>Other Laboratory</t>
+  </si>
+  <si>
+    <t>Laboratory.labDisease</t>
+  </si>
+  <si>
+    <t>Lab Disease</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/lab-diseases-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.affectedSpecie</t>
+  </si>
+  <si>
+    <t>Affected specie. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>Laboratory.samplingDate</t>
+  </si>
+  <si>
+    <t>Sampling Date</t>
+  </si>
+  <si>
+    <t>Laboratory.sampleType</t>
+  </si>
+  <si>
+    <t>Sample Type</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/sample-type-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.testType</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/test-type-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.resultDate</t>
+  </si>
+  <si>
+    <t>Result Date</t>
+  </si>
+  <si>
+    <t>Laboratory.testResult</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/test-result-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance</t>
@@ -627,10 +703,6 @@
   </si>
   <si>
     <t>ZoonosisSurveillance.generalInformation.observationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
   </si>
   <si>
     <t>Observation Date</t>
@@ -1071,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
@@ -1079,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
@@ -1095,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
@@ -1103,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27">
@@ -1149,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33">
@@ -1185,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43">
@@ -1233,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44">
@@ -1249,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46">
@@ -1257,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47">
@@ -1303,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
@@ -1339,7 +1411,7 @@
         <v>28</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58">
@@ -1373,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK64"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1966,7 +2038,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2014,11 +2086,13 @@
         <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z6" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA6" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>71</v>
@@ -2039,7 +2113,7 @@
         <v>102</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
@@ -2056,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2067,7 +2141,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2082,13 +2156,13 @@
         <v>71</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2115,7 +2189,7 @@
         <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" t="s" s="2">
@@ -2137,10 +2211,10 @@
         <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
@@ -2183,7 +2257,7 @@
         <v>71</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
         <v>111</v>
@@ -2216,7 +2290,7 @@
         <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" t="s" s="2">
@@ -2284,13 +2358,13 @@
         <v>71</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="N9" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2317,13 +2391,11 @@
         <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z9" s="2"/>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AB9" t="s" s="2">
         <v>71</v>
@@ -2387,13 +2459,13 @@
         <v>71</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2464,10 +2536,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2490,13 +2562,13 @@
         <v>71</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2547,7 +2619,7 @@
         <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -2567,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2593,13 +2665,13 @@
         <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2650,7 +2722,7 @@
         <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -2670,10 +2742,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2696,13 +2768,13 @@
         <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2753,7 +2825,7 @@
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2773,10 +2845,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2799,13 +2871,13 @@
         <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2832,11 +2904,13 @@
         <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z14" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA14" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>71</v>
@@ -2854,7 +2928,7 @@
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2900,7 +2974,7 @@
         <v>71</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>128</v>
@@ -2933,13 +3007,11 @@
         <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>71</v>
@@ -2977,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3003,13 +3075,13 @@
         <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3036,11 +3108,13 @@
         <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z16" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA16" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>71</v>
@@ -3058,7 +3132,7 @@
         <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -3104,7 +3178,7 @@
         <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>133</v>
@@ -3137,7 +3211,7 @@
         <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" t="s" s="2">
@@ -3193,25 +3267,25 @@
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="I18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3238,11 +3312,11 @@
         <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>71</v>
@@ -3266,7 +3340,7 @@
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>71</v>
@@ -3280,10 +3354,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3294,7 +3368,7 @@
         <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>71</v>
@@ -3306,7 +3380,7 @@
         <v>71</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>140</v>
@@ -3339,7 +3413,7 @@
         <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" t="s" s="2">
@@ -3361,13 +3435,13 @@
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>71</v>
@@ -3395,7 +3469,7 @@
         <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>71</v>
@@ -3407,7 +3481,7 @@
         <v>71</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>143</v>
@@ -3440,7 +3514,7 @@
         <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" t="s" s="2">
@@ -3468,7 +3542,7 @@
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>71</v>
@@ -3496,7 +3570,7 @@
         <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>71</v>
@@ -3508,7 +3582,7 @@
         <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>146</v>
@@ -3541,13 +3615,11 @@
         <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z21" s="2"/>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>71</v>
@@ -3571,7 +3643,7 @@
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>71</v>
@@ -3585,10 +3657,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3599,7 +3671,7 @@
         <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>71</v>
@@ -3611,13 +3683,13 @@
         <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3644,11 +3716,13 @@
         <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z22" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA22" t="s" s="2">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>71</v>
@@ -3666,13 +3740,13 @@
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>71</v>
@@ -3712,7 +3786,7 @@
         <v>71</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>151</v>
@@ -3745,7 +3819,7 @@
         <v>71</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" t="s" s="2">
@@ -3801,7 +3875,7 @@
         <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>71</v>
@@ -3813,7 +3887,7 @@
         <v>71</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>154</v>
@@ -3846,7 +3920,7 @@
         <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" t="s" s="2">
@@ -3874,7 +3948,7 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>71</v>
@@ -3902,7 +3976,7 @@
         <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>71</v>
@@ -3914,7 +3988,7 @@
         <v>71</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>157</v>
@@ -3947,7 +4021,7 @@
         <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" t="s" s="2">
@@ -3975,7 +4049,7 @@
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>71</v>
@@ -4015,7 +4089,7 @@
         <v>71</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>160</v>
@@ -4048,7 +4122,7 @@
         <v>71</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" t="s" s="2">
@@ -4116,7 +4190,7 @@
         <v>71</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>163</v>
@@ -4149,7 +4223,7 @@
         <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" t="s" s="2">
@@ -4205,7 +4279,7 @@
         <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>71</v>
@@ -4217,7 +4291,7 @@
         <v>71</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>166</v>
@@ -4250,7 +4324,7 @@
         <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" t="s" s="2">
@@ -4278,7 +4352,7 @@
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>71</v>
@@ -4306,7 +4380,7 @@
         <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>71</v>
@@ -4318,7 +4392,7 @@
         <v>71</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>169</v>
@@ -4351,7 +4425,7 @@
         <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" t="s" s="2">
@@ -4379,7 +4453,7 @@
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>71</v>
@@ -4407,7 +4481,7 @@
         <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>71</v>
@@ -4419,7 +4493,7 @@
         <v>71</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>172</v>
@@ -4452,13 +4526,11 @@
         <v>71</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z30" s="2"/>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>71</v>
@@ -4482,7 +4554,7 @@
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>71</v>
@@ -4493,13 +4565,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4510,7 +4582,7 @@
         <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>71</v>
@@ -4522,13 +4594,13 @@
         <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>175</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4579,30 +4651,30 @@
         <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4613,7 +4685,7 @@
         <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>71</v>
@@ -4625,13 +4697,13 @@
         <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4682,41 +4754,41 @@
         <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>71</v>
@@ -4728,17 +4800,15 @@
         <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>71</v>
@@ -4775,46 +4845,46 @@
         <v>71</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -4827,26 +4897,24 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="P34" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>71</v>
       </c>
@@ -4882,19 +4950,19 @@
         <v>71</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4911,45 +4979,49 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q35" t="s" s="2">
         <v>71</v>
       </c>
@@ -4973,11 +5045,13 @@
         <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA35" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>71</v>
@@ -4995,30 +5069,30 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5029,7 +5103,7 @@
         <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>71</v>
@@ -5041,13 +5115,13 @@
         <v>71</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5098,30 +5172,30 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5144,13 +5218,13 @@
         <v>71</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5177,13 +5251,11 @@
         <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z37" s="2"/>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>71</v>
@@ -5201,7 +5273,7 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -5218,7 +5290,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>186</v>
@@ -5228,14 +5300,14 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>71</v>
@@ -5247,17 +5319,15 @@
         <v>71</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>71</v>
@@ -5294,78 +5364,74 @@
         <v>71</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>71</v>
       </c>
@@ -5389,13 +5455,11 @@
         <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z39" s="2"/>
       <c r="AA39" t="s" s="2">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>71</v>
@@ -5413,30 +5477,30 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5447,7 +5511,7 @@
         <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>71</v>
@@ -5459,13 +5523,13 @@
         <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5492,13 +5556,11 @@
         <v>71</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z40" s="2"/>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>71</v>
@@ -5516,30 +5578,30 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5562,13 +5624,13 @@
         <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5619,7 +5681,7 @@
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
@@ -5636,24 +5698,24 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>71</v>
@@ -5665,17 +5727,15 @@
         <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>71</v>
@@ -5700,90 +5760,84 @@
         <v>71</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z42" s="2"/>
       <c r="AA42" t="s" s="2">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>71</v>
       </c>
@@ -5807,13 +5861,11 @@
         <v>71</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z43" s="2"/>
       <c r="AA43" t="s" s="2">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>71</v>
@@ -5831,30 +5883,30 @@
         <v>71</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5877,13 +5929,13 @@
         <v>71</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -5934,7 +5986,7 @@
         <v>71</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
@@ -5951,13 +6003,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5980,13 +6032,13 @@
         <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6013,13 +6065,11 @@
         <v>71</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z45" s="2"/>
       <c r="AA45" t="s" s="2">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>71</v>
@@ -6037,7 +6087,7 @@
         <v>71</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
@@ -6054,13 +6104,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6071,7 +6121,7 @@
         <v>72</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>71</v>
@@ -6083,13 +6133,13 @@
         <v>71</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6140,30 +6190,30 @@
         <v>71</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6186,13 +6236,13 @@
         <v>71</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -6243,7 +6293,7 @@
         <v>71</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
@@ -6260,24 +6310,24 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>71</v>
@@ -6289,15 +6339,17 @@
         <v>71</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>71</v>
@@ -6334,74 +6386,78 @@
         <v>71</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>71</v>
       </c>
@@ -6449,30 +6505,30 @@
         <v>71</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6495,13 +6551,13 @@
         <v>71</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -6552,7 +6608,7 @@
         <v>71</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
@@ -6564,18 +6620,18 @@
         <v>71</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6601,10 +6657,10 @@
         <v>80</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -6655,7 +6711,7 @@
         <v>71</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
@@ -6672,24 +6728,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>71</v>
@@ -6701,15 +6757,17 @@
         <v>71</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>71</v>
@@ -6746,74 +6804,78 @@
         <v>71</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>71</v>
       </c>
@@ -6861,41 +6923,41 @@
         <v>71</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>71</v>
@@ -6907,17 +6969,15 @@
         <v>71</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>71</v>
@@ -6954,78 +7014,74 @@
         <v>71</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>71</v>
       </c>
@@ -7073,30 +7129,30 @@
         <v>71</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7122,10 +7178,10 @@
         <v>103</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -7152,11 +7208,13 @@
         <v>71</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z56" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA56" t="s" s="2">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="AB56" t="s" s="2">
         <v>71</v>
@@ -7174,7 +7232,7 @@
         <v>71</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
@@ -7191,13 +7249,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7220,13 +7278,13 @@
         <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -7277,7 +7335,7 @@
         <v>71</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
@@ -7294,13 +7352,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7323,13 +7381,13 @@
         <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -7356,11 +7414,13 @@
         <v>71</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z58" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA58" t="s" s="2">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="AB58" t="s" s="2">
         <v>71</v>
@@ -7378,7 +7438,7 @@
         <v>71</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
@@ -7395,13 +7455,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7424,13 +7484,13 @@
         <v>71</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -7457,11 +7517,13 @@
         <v>71</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z59" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA59" t="s" s="2">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>71</v>
@@ -7479,7 +7541,7 @@
         <v>71</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
@@ -7496,13 +7558,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7525,13 +7587,13 @@
         <v>71</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -7558,11 +7620,13 @@
         <v>71</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z60" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA60" t="s" s="2">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>71</v>
@@ -7580,7 +7644,7 @@
         <v>71</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
@@ -7597,13 +7661,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -7626,13 +7690,13 @@
         <v>71</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -7659,11 +7723,13 @@
         <v>71</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z61" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA61" t="s" s="2">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="AB61" t="s" s="2">
         <v>71</v>
@@ -7681,7 +7747,7 @@
         <v>71</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
@@ -7698,13 +7764,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7727,13 +7793,13 @@
         <v>71</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -7784,7 +7850,7 @@
         <v>71</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
@@ -7796,18 +7862,18 @@
         <v>71</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7818,7 +7884,7 @@
         <v>72</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>71</v>
@@ -7830,13 +7896,13 @@
         <v>71</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -7887,13 +7953,13 @@
         <v>71</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>71</v>
@@ -7904,7 +7970,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>240</v>
@@ -7914,7 +7980,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -7933,15 +7999,17 @@
         <v>71</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>71</v>
@@ -7978,19 +8046,19 @@
         <v>71</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
@@ -8002,6 +8070,1030 @@
         <v>71</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z66" s="2"/>
+      <c r="AA66" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z68" s="2"/>
+      <c r="AA68" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z69" s="2"/>
+      <c r="AA69" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z70" s="2"/>
+      <c r="AA70" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="S71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z71" s="2"/>
+      <c r="AA71" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T09:40:09+00:00</t>
+    <t>2024-04-12T11:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,26 @@
     <t>Reporting Date</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalClass</t>
+    <t>AnimalSurveillance.epidemiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Epidemiology Information</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.epidemiology.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.epidemiology.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.epidemiology.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.epidemiology.animalClass</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -357,7 +376,7 @@
     <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalSpecies</t>
+    <t>AnimalSurveillance.epidemiology.animalSpecies</t>
   </si>
   <si>
     <t>Animal Species</t>
@@ -366,7 +385,7 @@
     <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalType</t>
+    <t>AnimalSurveillance.epidemiology.animalType</t>
   </si>
   <si>
     <t>Animal Type</t>
@@ -375,7 +394,7 @@
     <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsAtRisk</t>
+    <t>AnimalSurveillance.epidemiology.animalsAtRisk</t>
   </si>
   <si>
     <t xml:space="preserve">Count
@@ -385,31 +404,31 @@
     <t>Animals at Risk</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsCases</t>
+    <t>AnimalSurveillance.epidemiology.animalsCases</t>
   </si>
   <si>
     <t>Animals Cases</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsDeaths</t>
+    <t>AnimalSurveillance.epidemiology.animalsDeaths</t>
   </si>
   <si>
     <t>Animals Deaths</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsDestroyed</t>
+    <t>AnimalSurveillance.epidemiology.animalsDestroyed</t>
   </si>
   <si>
     <t>Animals Destroyed</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsSlaughtered</t>
+    <t>AnimalSurveillance.epidemiology.animalsSlaughtered</t>
   </si>
   <si>
     <t>Animals Slaughtered</t>
   </si>
   <si>
-    <t>AnimalSurveillance.vaccination</t>
+    <t>AnimalSurveillance.epidemiology.vaccination</t>
   </si>
   <si>
     <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
@@ -418,13 +437,13 @@
     <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown</t>
   </si>
   <si>
-    <t>AnimalSurveillance.vaccinated</t>
+    <t>AnimalSurveillance.epidemiology.vaccinated</t>
   </si>
   <si>
     <t>Number of vaccinated animals</t>
   </si>
   <si>
-    <t>AnimalSurveillance.productionSystemOne</t>
+    <t>AnimalSurveillance.epidemiology.productionSystemOne</t>
   </si>
   <si>
     <t>Production System One</t>
@@ -433,7 +452,7 @@
     <t>https://dhis2.org/fhir/ValueSet/production-system-one-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.productionSystemTwo</t>
+    <t>AnimalSurveillance.epidemiology.productionSystemTwo</t>
   </si>
   <si>
     <t>Production System Two</t>
@@ -478,7 +497,22 @@
     <t>Infection Source</t>
   </si>
   <si>
-    <t>AnimalSurveillance.diseaseStatus</t>
+    <t>AnimalSurveillance.diagnosis</t>
+  </si>
+  <si>
+    <t>Diagnosis Information</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosis.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosis.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosis.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosis.diseaseStatus</t>
   </si>
   <si>
     <t>Disease Status. CONFIRMED | DENIED | SUSPECTED</t>
@@ -487,7 +521,7 @@
     <t>https://dhis2.org/fhir/ValueSet/disease-status-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.disease</t>
+    <t>AnimalSurveillance.diagnosis.disease</t>
   </si>
   <si>
     <t>Disease</t>
@@ -496,7 +530,7 @@
     <t>https://dhis2.org/fhir/ValueSet/diseases-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.diseaseSubTypes</t>
+    <t>AnimalSurveillance.diagnosis.diseaseSubTypes</t>
   </si>
   <si>
     <t>Disease Subtype(s)</t>
@@ -505,7 +539,7 @@
     <t>https://dhis2.org/fhir/ValueSet/disease-subtype-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.clade</t>
+    <t>AnimalSurveillance.diagnosis.clade</t>
   </si>
   <si>
     <t>Clade</t>
@@ -514,7 +548,7 @@
     <t>https://dhis2.org/fhir/ValueSet/clade-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.diagnosticSource</t>
+    <t>AnimalSurveillance.diagnosis.diagnosticSource</t>
   </si>
   <si>
     <t>Diagnostic Source</t>
@@ -523,7 +557,7 @@
     <t>https://dhis2.org/fhir/ValueSet/diagnostic-source-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.diagnosisBasis</t>
+    <t>AnimalSurveillance.diagnosis.diagnosisBasis</t>
   </si>
   <si>
     <t>Diagnosis Basis. CLINICAL_SIGNS | NECROPSY_LESIONS | LABORATORY_TEST | OTHERS</t>
@@ -668,10 +702,6 @@
   </si>
   <si>
     <t>ZoonosisSurveillance.generalInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
   </si>
   <si>
     <t>General Information</t>
@@ -1143,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -1151,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
@@ -1167,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
@@ -1175,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
@@ -1221,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1287,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38">
@@ -1297,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43">
@@ -1305,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44">
@@ -1321,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46">
@@ -1329,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47">
@@ -1375,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53">
@@ -1411,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58">
@@ -1445,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AK82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2141,7 +2171,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2189,11 +2219,13 @@
         <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA7" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>71</v>
@@ -2214,7 +2246,7 @@
         <v>105</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
@@ -2223,7 +2255,7 @@
         <v>71</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2231,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2257,13 +2289,13 @@
         <v>71</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2290,11 +2322,13 @@
         <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z8" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA8" t="s" s="2">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>71</v>
@@ -2312,7 +2346,7 @@
         <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -2332,21 +2366,21 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>71</v>
@@ -2358,15 +2392,17 @@
         <v>71</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
         <v>71</v>
@@ -2391,41 +2427,43 @@
         <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z9" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA9" t="s" s="2">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -2433,42 +2471,46 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q10" t="s" s="2">
         <v>71</v>
       </c>
@@ -2516,19 +2558,19 @@
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -2536,10 +2578,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2547,7 +2589,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -2562,13 +2604,13 @@
         <v>71</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2595,13 +2637,11 @@
         <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z11" s="2"/>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>71</v>
@@ -2619,10 +2659,10 @@
         <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>79</v>
@@ -2639,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2665,13 +2705,13 @@
         <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2698,13 +2738,11 @@
         <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z12" s="2"/>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AB12" t="s" s="2">
         <v>71</v>
@@ -2722,7 +2760,7 @@
         <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -2742,10 +2780,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2768,13 +2806,13 @@
         <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2801,13 +2839,11 @@
         <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z13" s="2"/>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>71</v>
@@ -2825,7 +2861,7 @@
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2845,10 +2881,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2871,13 +2907,13 @@
         <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2928,7 +2964,7 @@
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2948,10 +2984,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2974,13 +3010,13 @@
         <v>71</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3007,11 +3043,13 @@
         <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z15" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA15" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>71</v>
@@ -3029,7 +3067,7 @@
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -3049,10 +3087,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3075,13 +3113,13 @@
         <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3132,7 +3170,7 @@
         <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -3152,10 +3190,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3178,13 +3216,13 @@
         <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3211,11 +3249,13 @@
         <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z17" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA17" t="s" s="2">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>71</v>
@@ -3233,7 +3273,7 @@
         <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -3253,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3279,13 +3319,13 @@
         <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3312,11 +3352,13 @@
         <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z18" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA18" t="s" s="2">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>71</v>
@@ -3334,7 +3376,7 @@
         <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -3354,10 +3396,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3368,7 +3410,7 @@
         <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>71</v>
@@ -3380,13 +3422,13 @@
         <v>71</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3413,11 +3455,11 @@
         <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>71</v>
@@ -3435,13 +3477,13 @@
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>71</v>
@@ -3455,10 +3497,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3469,7 +3511,7 @@
         <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>71</v>
@@ -3481,13 +3523,13 @@
         <v>71</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3514,11 +3556,13 @@
         <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z20" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA20" t="s" s="2">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>71</v>
@@ -3536,13 +3580,13 @@
         <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>71</v>
@@ -3556,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3582,13 +3626,13 @@
         <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3615,11 +3659,11 @@
         <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>71</v>
@@ -3637,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -3657,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3671,7 +3715,7 @@
         <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>71</v>
@@ -3683,13 +3727,13 @@
         <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3716,13 +3760,11 @@
         <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z22" s="2"/>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>71</v>
@@ -3740,13 +3782,13 @@
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>71</v>
@@ -3760,10 +3802,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3774,7 +3816,7 @@
         <v>72</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>71</v>
@@ -3786,13 +3828,13 @@
         <v>71</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3819,11 +3861,11 @@
         <v>71</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>71</v>
@@ -3841,13 +3883,13 @@
         <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>71</v>
@@ -3861,10 +3903,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3875,7 +3917,7 @@
         <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>71</v>
@@ -3887,13 +3929,13 @@
         <v>71</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3920,11 +3962,11 @@
         <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>71</v>
@@ -3942,13 +3984,13 @@
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>71</v>
@@ -3962,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3976,7 +4018,7 @@
         <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>71</v>
@@ -3988,13 +4030,13 @@
         <v>71</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4021,11 +4063,11 @@
         <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>71</v>
@@ -4043,13 +4085,13 @@
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>71</v>
@@ -4063,10 +4105,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4077,7 +4119,7 @@
         <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>71</v>
@@ -4089,13 +4131,13 @@
         <v>71</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4122,11 +4164,13 @@
         <v>71</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z26" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA26" t="s" s="2">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>71</v>
@@ -4144,13 +4188,13 @@
         <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
@@ -4164,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4193,10 +4237,10 @@
         <v>106</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4223,11 +4267,13 @@
         <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z27" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA27" t="s" s="2">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>71</v>
@@ -4245,7 +4291,7 @@
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
@@ -4257,7 +4303,7 @@
         <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4265,10 +4311,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4291,13 +4337,13 @@
         <v>71</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4324,11 +4370,13 @@
         <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z28" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA28" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>71</v>
@@ -4346,7 +4394,7 @@
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
@@ -4366,21 +4414,21 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>71</v>
@@ -4392,15 +4440,17 @@
         <v>71</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>71</v>
@@ -4425,41 +4475,43 @@
         <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z29" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA29" t="s" s="2">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -4467,42 +4519,46 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4526,11 +4582,13 @@
         <v>71</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z30" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA30" t="s" s="2">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>71</v>
@@ -4548,19 +4606,19 @@
         <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -4568,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4594,13 +4652,13 @@
         <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4627,13 +4685,11 @@
         <v>71</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z31" s="2"/>
       <c r="AA31" t="s" s="2">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>71</v>
@@ -4651,7 +4707,7 @@
         <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
@@ -4668,13 +4724,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4685,7 +4741,7 @@
         <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>71</v>
@@ -4697,13 +4753,13 @@
         <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4730,13 +4786,11 @@
         <v>71</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z32" s="2"/>
       <c r="AA32" t="s" s="2">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>71</v>
@@ -4754,30 +4808,30 @@
         <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4788,7 +4842,7 @@
         <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>71</v>
@@ -4800,13 +4854,13 @@
         <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4833,13 +4887,11 @@
         <v>71</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z33" s="2"/>
       <c r="AA33" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>71</v>
@@ -4857,13 +4909,13 @@
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>71</v>
@@ -4874,24 +4926,24 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>71</v>
@@ -4903,17 +4955,15 @@
         <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>71</v>
@@ -4938,90 +4988,84 @@
         <v>71</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z34" s="2"/>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>71</v>
       </c>
@@ -5045,13 +5089,11 @@
         <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z35" s="2"/>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>71</v>
@@ -5069,30 +5111,30 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="C36" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5115,13 +5157,13 @@
         <v>71</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5148,13 +5190,11 @@
         <v>71</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z36" s="2"/>
       <c r="AA36" t="s" s="2">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>71</v>
@@ -5172,7 +5212,7 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -5189,13 +5229,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5206,7 +5246,7 @@
         <v>72</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>71</v>
@@ -5218,13 +5258,13 @@
         <v>71</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5251,11 +5291,11 @@
         <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>71</v>
@@ -5273,13 +5313,13 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>71</v>
@@ -5290,13 +5330,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5307,7 +5347,7 @@
         <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>71</v>
@@ -5319,13 +5359,13 @@
         <v>71</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5352,13 +5392,11 @@
         <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z38" s="2"/>
       <c r="AA38" t="s" s="2">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>71</v>
@@ -5376,13 +5414,13 @@
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>71</v>
@@ -5393,13 +5431,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5422,13 +5460,13 @@
         <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5455,11 +5493,13 @@
         <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z39" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA39" t="s" s="2">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>71</v>
@@ -5477,7 +5517,7 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -5494,13 +5534,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5523,13 +5563,13 @@
         <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5556,11 +5596,13 @@
         <v>71</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z40" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA40" t="s" s="2">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>71</v>
@@ -5578,7 +5620,7 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -5587,21 +5629,21 @@
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5624,13 +5666,13 @@
         <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5681,7 +5723,7 @@
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
@@ -5698,24 +5740,24 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>71</v>
@@ -5727,15 +5769,17 @@
         <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>71</v>
@@ -5760,84 +5804,90 @@
         <v>71</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z42" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA42" t="s" s="2">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q43" t="s" s="2">
         <v>71</v>
       </c>
@@ -5861,11 +5911,13 @@
         <v>71</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z43" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA43" t="s" s="2">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>71</v>
@@ -5883,30 +5935,30 @@
         <v>71</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5932,10 +5984,10 @@
         <v>103</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -5986,7 +6038,7 @@
         <v>71</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
@@ -6003,13 +6055,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6032,13 +6084,13 @@
         <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6065,11 +6117,11 @@
         <v>71</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>71</v>
@@ -6087,7 +6139,7 @@
         <v>71</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
@@ -6104,13 +6156,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6121,7 +6173,7 @@
         <v>72</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>71</v>
@@ -6133,13 +6185,13 @@
         <v>71</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6190,30 +6242,30 @@
         <v>71</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6236,13 +6288,13 @@
         <v>71</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -6269,13 +6321,11 @@
         <v>71</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z47" s="2"/>
       <c r="AA47" t="s" s="2">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>71</v>
@@ -6293,7 +6343,7 @@
         <v>71</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
@@ -6310,17 +6360,17 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
@@ -6339,17 +6389,15 @@
         <v>71</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>71</v>
@@ -6374,31 +6422,29 @@
         <v>71</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z48" s="2"/>
       <c r="AA48" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AB48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
@@ -6410,54 +6456,50 @@
         <v>71</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>71</v>
       </c>
@@ -6505,30 +6547,30 @@
         <v>71</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="C50" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6551,13 +6593,13 @@
         <v>71</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -6584,13 +6626,11 @@
         <v>71</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z50" s="2"/>
       <c r="AA50" t="s" s="2">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>71</v>
@@ -6608,7 +6648,7 @@
         <v>71</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
@@ -6620,18 +6660,18 @@
         <v>71</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6654,13 +6694,13 @@
         <v>71</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -6687,13 +6727,11 @@
         <v>71</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z51" s="2"/>
       <c r="AA51" t="s" s="2">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="AB51" t="s" s="2">
         <v>71</v>
@@ -6711,7 +6749,7 @@
         <v>71</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
@@ -6728,24 +6766,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>71</v>
@@ -6757,17 +6795,15 @@
         <v>71</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>71</v>
@@ -6804,78 +6840,74 @@
         <v>71</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>71</v>
       </c>
@@ -6899,13 +6931,11 @@
         <v>71</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z53" s="2"/>
       <c r="AA53" t="s" s="2">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="AB53" t="s" s="2">
         <v>71</v>
@@ -6923,30 +6953,30 @@
         <v>71</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -6957,7 +6987,7 @@
         <v>72</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>71</v>
@@ -6969,10 +6999,10 @@
         <v>71</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>220</v>
@@ -7026,24 +7056,24 @@
         <v>71</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>221</v>
@@ -7072,13 +7102,13 @@
         <v>71</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -7129,7 +7159,7 @@
         <v>71</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>221</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
@@ -7146,24 +7176,24 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>71</v>
@@ -7175,15 +7205,17 @@
         <v>71</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>71</v>
@@ -7220,74 +7252,78 @@
         <v>71</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>71</v>
       </c>
@@ -7335,30 +7371,30 @@
         <v>71</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7381,13 +7417,13 @@
         <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -7438,7 +7474,7 @@
         <v>71</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
@@ -7450,18 +7486,18 @@
         <v>71</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7484,13 +7520,13 @@
         <v>71</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -7541,7 +7577,7 @@
         <v>71</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
@@ -7558,24 +7594,24 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>71</v>
@@ -7587,15 +7623,17 @@
         <v>71</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>71</v>
@@ -7632,74 +7670,78 @@
         <v>71</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>71</v>
       </c>
@@ -7747,30 +7789,30 @@
         <v>71</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7793,13 +7835,13 @@
         <v>71</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -7850,7 +7892,7 @@
         <v>71</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
@@ -7862,18 +7904,18 @@
         <v>71</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7896,13 +7938,13 @@
         <v>71</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -7953,7 +7995,7 @@
         <v>71</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
@@ -7970,24 +8012,24 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>71</v>
@@ -7999,17 +8041,15 @@
         <v>71</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>71</v>
@@ -8046,78 +8086,74 @@
         <v>71</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
         <v>71</v>
       </c>
@@ -8165,30 +8201,30 @@
         <v>71</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8211,13 +8247,13 @@
         <v>71</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -8244,11 +8280,13 @@
         <v>71</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z66" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA66" t="s" s="2">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>71</v>
@@ -8266,7 +8304,7 @@
         <v>71</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>72</v>
@@ -8283,13 +8321,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8312,13 +8350,13 @@
         <v>71</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -8369,7 +8407,7 @@
         <v>71</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>72</v>
@@ -8386,13 +8424,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8415,13 +8453,13 @@
         <v>71</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -8448,11 +8486,13 @@
         <v>71</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z68" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA68" t="s" s="2">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="AB68" t="s" s="2">
         <v>71</v>
@@ -8470,7 +8510,7 @@
         <v>71</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
@@ -8487,13 +8527,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8516,13 +8556,13 @@
         <v>71</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -8549,11 +8589,13 @@
         <v>71</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z69" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA69" t="s" s="2">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="AB69" t="s" s="2">
         <v>71</v>
@@ -8571,7 +8613,7 @@
         <v>71</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
@@ -8588,13 +8630,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8620,10 +8662,10 @@
         <v>106</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -8650,11 +8692,13 @@
         <v>71</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z70" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA70" t="s" s="2">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="AB70" t="s" s="2">
         <v>71</v>
@@ -8672,7 +8716,7 @@
         <v>71</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
@@ -8684,18 +8728,18 @@
         <v>71</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8718,13 +8762,13 @@
         <v>71</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -8751,11 +8795,13 @@
         <v>71</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z71" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA71" t="s" s="2">
-        <v>258</v>
+        <v>71</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>71</v>
@@ -8773,7 +8819,7 @@
         <v>71</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>72</v>
@@ -8790,24 +8836,24 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>71</v>
@@ -8819,15 +8865,17 @@
         <v>71</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
         <v>71</v>
@@ -8864,46 +8912,46 @@
         <v>71</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -8916,22 +8964,26 @@
         <v>71</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q73" t="s" s="2">
         <v>71</v>
       </c>
@@ -8979,7 +9031,7 @@
         <v>71</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
@@ -8991,18 +9043,18 @@
         <v>71</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9013,7 +9065,7 @@
         <v>72</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>71</v>
@@ -9025,13 +9077,13 @@
         <v>71</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -9058,13 +9110,11 @@
         <v>71</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z74" s="2"/>
       <c r="AA74" t="s" s="2">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>71</v>
@@ -9082,18 +9132,834 @@
         <v>71</v>
       </c>
       <c r="AG74" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R76" s="2"/>
+      <c r="S76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z76" s="2"/>
+      <c r="AA76" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R77" s="2"/>
+      <c r="S77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z77" s="2"/>
+      <c r="AA77" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AH74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI74" t="s" s="2">
+      <c r="N78" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R78" s="2"/>
+      <c r="S78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z78" s="2"/>
+      <c r="AA78" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R79" s="2"/>
+      <c r="S79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z79" s="2"/>
+      <c r="AA79" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R80" s="2"/>
+      <c r="S80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK74" t="s" s="2">
+      <c r="I81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R81" s="2"/>
+      <c r="S81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R82" s="2"/>
+      <c r="S82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="293">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:15:39+00:00</t>
+    <t>2024-04-16T08:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,7 +434,7 @@
     <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown</t>
+    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.vaccinated</t>
@@ -461,7 +461,22 @@
     <t>https://dhis2.org/fhir/ValueSet/production-system-two-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.clinicalSigns</t>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions</t>
+  </si>
+  <si>
+    <t>Clinical signs and necropsy lesions</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.clinicalSigns</t>
   </si>
   <si>
     <t>5</t>
@@ -473,7 +488,7 @@
     <t>https://dhis2.org/fhir/ValueSet/clinical-signs-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.necropsyLesions</t>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.necropsyLesions</t>
   </si>
   <si>
     <t>Necropsy lesions. Note: can be more than one</t>
@@ -482,7 +497,22 @@
     <t>https://dhis2.org/fhir/ValueSet/necropsy-lesions-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.surveillanceType</t>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource</t>
+  </si>
+  <si>
+    <t>Surveillance type and infection source. Surveillance and Infection source (select all that apply)</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.surveillanceType</t>
   </si>
   <si>
     <t>Surveillance Type.  PASSIVE | ROUTINE | ACTIVE | PDS | CAHO | GDS | SENTINEL</t>
@@ -491,10 +521,13 @@
     <t>https://dhis2.org/fhir/ValueSet/surveillance-type-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.infectionSource</t>
-  </si>
-  <si>
-    <t>Infection Source</t>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.infectionSource</t>
+  </si>
+  <si>
+    <t>Infection Source.</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/infection-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis</t>
@@ -566,7 +599,22 @@
     <t>https://dhis2.org/fhir/ValueSet/diagnosis-basis-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.controlMeasures</t>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments</t>
+  </si>
+  <si>
+    <t>Control measures and treatment (select all that apply)</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.controlMeasures</t>
   </si>
   <si>
     <t>Control Measure. Note: can be more than one</t>
@@ -575,7 +623,7 @@
     <t>https://dhis2.org/fhir/ValueSet/control-measures-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.treatments</t>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.treatments</t>
   </si>
   <si>
     <t>Treatments. Note: can be more than one</t>
@@ -1173,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
@@ -1181,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -1197,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26">
@@ -1205,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
@@ -1251,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
@@ -1287,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38">
@@ -1327,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43">
@@ -1335,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44">
@@ -1351,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46">
@@ -1359,7 +1407,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1453,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53">
@@ -1441,7 +1489,7 @@
         <v>28</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58">
@@ -1475,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK82"/>
+  <dimension ref="A1:AK94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1485,8 +1533,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.8828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="55.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="69.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="69.85546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="21.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1516,7 +1564,7 @@
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="54.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="68.765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -3816,25 +3864,25 @@
         <v>72</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3861,11 +3909,13 @@
         <v>71</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z23" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA23" t="s" s="2">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>71</v>
@@ -3889,13 +3939,13 @@
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -3903,10 +3953,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3917,7 +3967,7 @@
         <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>71</v>
@@ -3929,13 +3979,13 @@
         <v>71</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3962,11 +4012,13 @@
         <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z24" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA24" t="s" s="2">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>71</v>
@@ -3984,13 +4036,13 @@
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>71</v>
@@ -4004,21 +4056,21 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>71</v>
@@ -4030,15 +4082,17 @@
         <v>71</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>71</v>
@@ -4063,41 +4117,43 @@
         <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z25" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA25" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -4105,42 +4161,46 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q26" t="s" s="2">
         <v>71</v>
       </c>
@@ -4188,19 +4248,19 @@
         <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -4208,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4222,7 +4282,7 @@
         <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>71</v>
@@ -4234,13 +4294,13 @@
         <v>71</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4267,13 +4327,11 @@
         <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z27" s="2"/>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>71</v>
@@ -4291,19 +4349,19 @@
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -4311,10 +4369,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4325,7 +4383,7 @@
         <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>71</v>
@@ -4337,13 +4395,13 @@
         <v>71</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4370,13 +4428,11 @@
         <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z28" s="2"/>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>71</v>
@@ -4394,13 +4450,13 @@
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>71</v>
@@ -4414,21 +4470,21 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>71</v>
@@ -4440,17 +4496,15 @@
         <v>71</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>71</v>
@@ -4487,31 +4541,31 @@
         <v>71</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -4519,46 +4573,42 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4606,19 +4656,19 @@
         <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -4626,21 +4676,21 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>71</v>
@@ -4652,15 +4702,17 @@
         <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>71</v>
@@ -4685,41 +4737,43 @@
         <v>71</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z31" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA31" t="s" s="2">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
@@ -4727,42 +4781,46 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q32" t="s" s="2">
         <v>71</v>
       </c>
@@ -4786,11 +4844,13 @@
         <v>71</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z32" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA32" t="s" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>71</v>
@@ -4808,19 +4868,19 @@
         <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -4828,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4842,7 +4902,7 @@
         <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>71</v>
@@ -4857,10 +4917,10 @@
         <v>112</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4891,7 +4951,7 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>71</v>
@@ -4909,13 +4969,13 @@
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>71</v>
@@ -4929,10 +4989,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4943,7 +5003,7 @@
         <v>72</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>71</v>
@@ -4958,10 +5018,10 @@
         <v>112</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4992,7 +5052,7 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>71</v>
@@ -5010,13 +5070,13 @@
         <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>71</v>
@@ -5030,10 +5090,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5056,13 +5116,13 @@
         <v>71</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -5089,11 +5149,13 @@
         <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA35" t="s" s="2">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>71</v>
@@ -5111,7 +5173,7 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -5123,7 +5185,7 @@
         <v>71</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5131,10 +5193,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5157,13 +5219,13 @@
         <v>71</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5190,11 +5252,13 @@
         <v>71</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z36" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA36" t="s" s="2">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>71</v>
@@ -5212,7 +5276,7 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -5232,21 +5296,21 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>71</v>
@@ -5258,15 +5322,17 @@
         <v>71</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>71</v>
@@ -5291,41 +5357,43 @@
         <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z37" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA37" t="s" s="2">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -5333,42 +5401,46 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q38" t="s" s="2">
         <v>71</v>
       </c>
@@ -5392,11 +5464,13 @@
         <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z38" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA38" t="s" s="2">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>71</v>
@@ -5414,19 +5488,19 @@
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -5434,10 +5508,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5460,13 +5534,13 @@
         <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5493,13 +5567,11 @@
         <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z39" s="2"/>
       <c r="AA39" t="s" s="2">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>71</v>
@@ -5517,7 +5589,7 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -5534,13 +5606,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5551,7 +5623,7 @@
         <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>71</v>
@@ -5563,13 +5635,13 @@
         <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5596,13 +5668,11 @@
         <v>71</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z40" s="2"/>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>71</v>
@@ -5620,30 +5690,30 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5654,7 +5724,7 @@
         <v>72</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>71</v>
@@ -5666,13 +5736,13 @@
         <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5699,13 +5769,11 @@
         <v>71</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z41" s="2"/>
       <c r="AA41" t="s" s="2">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="AB41" t="s" s="2">
         <v>71</v>
@@ -5723,13 +5791,13 @@
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>71</v>
@@ -5740,24 +5808,24 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>71</v>
@@ -5769,17 +5837,15 @@
         <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>71</v>
@@ -5804,90 +5870,84 @@
         <v>71</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z42" s="2"/>
       <c r="AA42" t="s" s="2">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>71</v>
       </c>
@@ -5911,13 +5971,11 @@
         <v>71</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z43" s="2"/>
       <c r="AA43" t="s" s="2">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>71</v>
@@ -5935,30 +5993,30 @@
         <v>71</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B44" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="C44" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5981,13 +6039,13 @@
         <v>71</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6014,13 +6072,11 @@
         <v>71</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z44" s="2"/>
       <c r="AA44" t="s" s="2">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>71</v>
@@ -6038,7 +6094,7 @@
         <v>71</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
@@ -6055,13 +6111,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6084,13 +6140,13 @@
         <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6117,11 +6173,13 @@
         <v>71</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z45" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA45" t="s" s="2">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>71</v>
@@ -6139,7 +6197,7 @@
         <v>71</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
@@ -6151,18 +6209,18 @@
         <v>71</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6188,10 +6246,10 @@
         <v>80</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6242,7 +6300,7 @@
         <v>71</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
@@ -6259,24 +6317,24 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>71</v>
@@ -6288,15 +6346,17 @@
         <v>71</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>71</v>
@@ -6321,56 +6381,58 @@
         <v>71</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z47" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA47" t="s" s="2">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
@@ -6383,22 +6445,26 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q48" t="s" s="2">
         <v>71</v>
       </c>
@@ -6422,11 +6488,13 @@
         <v>71</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z48" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA48" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="AB48" t="s" s="2">
         <v>71</v>
@@ -6444,7 +6512,7 @@
         <v>71</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
@@ -6456,18 +6524,18 @@
         <v>71</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6478,7 +6546,7 @@
         <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>71</v>
@@ -6490,13 +6558,13 @@
         <v>71</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -6523,13 +6591,11 @@
         <v>71</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z49" s="2"/>
       <c r="AA49" t="s" s="2">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>71</v>
@@ -6547,13 +6613,13 @@
         <v>71</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>71</v>
@@ -6564,13 +6630,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6581,7 +6647,7 @@
         <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>71</v>
@@ -6596,10 +6662,10 @@
         <v>112</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>71</v>
@@ -6648,13 +6714,13 @@
         <v>71</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>71</v>
@@ -6665,13 +6731,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6694,13 +6760,13 @@
         <v>71</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -6727,11 +6793,13 @@
         <v>71</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z51" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA51" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="AB51" t="s" s="2">
         <v>71</v>
@@ -6749,7 +6817,7 @@
         <v>71</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
@@ -6766,13 +6834,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6783,7 +6851,7 @@
         <v>72</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>71</v>
@@ -6795,13 +6863,13 @@
         <v>71</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -6852,30 +6920,30 @@
         <v>71</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6898,13 +6966,13 @@
         <v>71</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -6931,11 +6999,13 @@
         <v>71</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z53" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA53" t="s" s="2">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="AB53" t="s" s="2">
         <v>71</v>
@@ -6953,7 +7023,7 @@
         <v>71</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
@@ -6970,17 +7040,17 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s" s="2">
@@ -6999,15 +7069,17 @@
         <v>71</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>71</v>
@@ -7044,19 +7116,19 @@
         <v>71</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
@@ -7065,53 +7137,57 @@
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>71</v>
       </c>
@@ -7159,41 +7235,41 @@
         <v>71</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>71</v>
@@ -7205,17 +7281,15 @@
         <v>71</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>71</v>
@@ -7252,78 +7326,74 @@
         <v>71</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>71</v>
       </c>
@@ -7347,13 +7417,11 @@
         <v>71</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z57" s="2"/>
       <c r="AA57" t="s" s="2">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="AB57" t="s" s="2">
         <v>71</v>
@@ -7371,30 +7439,30 @@
         <v>71</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7417,13 +7485,13 @@
         <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -7474,7 +7542,7 @@
         <v>71</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
@@ -7486,18 +7554,18 @@
         <v>71</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7520,13 +7588,13 @@
         <v>71</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -7553,13 +7621,11 @@
         <v>71</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z59" s="2"/>
       <c r="AA59" t="s" s="2">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>71</v>
@@ -7577,7 +7643,7 @@
         <v>71</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
@@ -7594,17 +7660,17 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
@@ -7623,17 +7689,15 @@
         <v>71</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>71</v>
@@ -7658,31 +7722,29 @@
         <v>71</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z60" s="2"/>
       <c r="AA60" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
@@ -7694,54 +7756,50 @@
         <v>71</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>71</v>
       </c>
@@ -7789,30 +7847,30 @@
         <v>71</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7835,13 +7893,13 @@
         <v>71</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -7868,13 +7926,11 @@
         <v>71</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z62" s="2"/>
       <c r="AA62" t="s" s="2">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="AB62" t="s" s="2">
         <v>71</v>
@@ -7892,7 +7948,7 @@
         <v>71</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
@@ -7909,13 +7965,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7938,13 +7994,13 @@
         <v>71</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -7971,13 +8027,11 @@
         <v>71</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z63" s="2"/>
       <c r="AA63" t="s" s="2">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="AB63" t="s" s="2">
         <v>71</v>
@@ -7995,7 +8049,7 @@
         <v>71</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
@@ -8012,13 +8066,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8044,10 +8098,10 @@
         <v>103</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -8098,7 +8152,7 @@
         <v>71</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
@@ -8115,13 +8169,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8144,13 +8198,13 @@
         <v>71</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -8177,13 +8231,11 @@
         <v>71</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Z65" s="2"/>
       <c r="AA65" t="s" s="2">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="AB65" t="s" s="2">
         <v>71</v>
@@ -8201,7 +8253,7 @@
         <v>71</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>72</v>
@@ -8218,13 +8270,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8235,7 +8287,7 @@
         <v>72</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>71</v>
@@ -8247,13 +8299,13 @@
         <v>71</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -8304,30 +8356,30 @@
         <v>71</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8350,13 +8402,13 @@
         <v>71</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -8407,7 +8459,7 @@
         <v>71</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>72</v>
@@ -8424,24 +8476,24 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>71</v>
@@ -8453,15 +8505,17 @@
         <v>71</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>71</v>
@@ -8498,74 +8552,78 @@
         <v>71</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="Q69" t="s" s="2">
         <v>71</v>
       </c>
@@ -8613,30 +8671,30 @@
         <v>71</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8662,10 +8720,10 @@
         <v>106</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -8716,7 +8774,7 @@
         <v>71</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
@@ -8733,13 +8791,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8836,13 +8894,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -8941,13 +8999,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9048,13 +9106,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9077,13 +9135,13 @@
         <v>71</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -9110,11 +9168,13 @@
         <v>71</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z74" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA74" t="s" s="2">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>71</v>
@@ -9132,7 +9192,7 @@
         <v>71</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>72</v>
@@ -9149,13 +9209,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9178,13 +9238,13 @@
         <v>71</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -9235,7 +9295,7 @@
         <v>71</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
@@ -9252,13 +9312,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9281,13 +9341,13 @@
         <v>71</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -9314,11 +9374,13 @@
         <v>71</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z76" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA76" t="s" s="2">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>71</v>
@@ -9336,7 +9398,7 @@
         <v>71</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
@@ -9353,13 +9415,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9382,13 +9444,13 @@
         <v>71</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -9415,11 +9477,13 @@
         <v>71</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z77" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA77" t="s" s="2">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="AB77" t="s" s="2">
         <v>71</v>
@@ -9437,7 +9501,7 @@
         <v>71</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
@@ -9454,13 +9518,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9483,13 +9547,13 @@
         <v>71</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -9516,11 +9580,13 @@
         <v>71</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z78" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA78" t="s" s="2">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>71</v>
@@ -9538,7 +9604,7 @@
         <v>71</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>72</v>
@@ -9555,13 +9621,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -9584,13 +9650,13 @@
         <v>71</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -9617,11 +9683,13 @@
         <v>71</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z79" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA79" t="s" s="2">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>71</v>
@@ -9639,7 +9707,7 @@
         <v>71</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>72</v>
@@ -9656,13 +9724,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -9685,13 +9753,13 @@
         <v>71</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -9742,7 +9810,7 @@
         <v>71</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>72</v>
@@ -9759,13 +9827,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -9776,7 +9844,7 @@
         <v>72</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>71</v>
@@ -9788,13 +9856,13 @@
         <v>71</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -9845,13 +9913,13 @@
         <v>71</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>71</v>
@@ -9862,13 +9930,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -9879,7 +9947,7 @@
         <v>72</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>71</v>
@@ -9891,13 +9959,13 @@
         <v>71</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -9948,18 +10016,1250 @@
         <v>71</v>
       </c>
       <c r="AG82" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R83" s="2"/>
+      <c r="S83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R84" s="2"/>
+      <c r="S84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R86" s="2"/>
+      <c r="S86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z86" s="2"/>
+      <c r="AA86" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AH82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI82" t="s" s="2">
+      <c r="N88" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R88" s="2"/>
+      <c r="S88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z88" s="2"/>
+      <c r="AA88" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R89" s="2"/>
+      <c r="S89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z89" s="2"/>
+      <c r="AA89" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R90" s="2"/>
+      <c r="S90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z90" s="2"/>
+      <c r="AA90" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R91" s="2"/>
+      <c r="S91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z91" s="2"/>
+      <c r="AA91" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AJ82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK82" t="s" s="2">
+      <c r="I93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:17:53+00:00</t>
+    <t>2024-04-16T08:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -397,7 +397,7 @@
     <t>AnimalSurveillance.epidemiology.animalsAtRisk</t>
   </si>
   <si>
-    <t xml:space="preserve">Count
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:28:58+00:00</t>
+    <t>2024-04-16T18:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T18:12:52+00:00</t>
+    <t>2024-04-17T08:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T08:50:12+00:00</t>
+    <t>2024-04-17T10:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance</t>
+    <t>https://example.org/fhir/StructureDefinition/AnimalSurveillance</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T10:25:03+00:00</t>
+    <t>2024-04-17T11:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
+    <t>https://example.org/fhir/ValueSet/animal-class-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalSpecies</t>
@@ -382,7 +382,7 @@
     <t>Animal Species</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
+    <t>https://example.org/fhir/ValueSet/animal-species-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalType</t>
@@ -391,7 +391,7 @@
     <t>Animal Type</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
+    <t>https://example.org/fhir/ValueSet/animal-type-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalsAtRisk</t>
@@ -434,7 +434,7 @@
     <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown-vs</t>
+    <t>https://example.org/fhir/ValueSet/yes-no-unknown-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.vaccinated</t>
@@ -449,7 +449,7 @@
     <t>Production System One</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/production-system-one-vs</t>
+    <t>https://example.org/fhir/ValueSet/production-system-one-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.productionSystemTwo</t>
@@ -458,7 +458,7 @@
     <t>Production System Two</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/production-system-two-vs</t>
+    <t>https://example.org/fhir/ValueSet/production-system-two-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions</t>
@@ -485,7 +485,7 @@
     <t>Clinical signs. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/clinical-signs-vs</t>
+    <t>https://example.org/fhir/ValueSet/clinical-signs-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.necropsyLesions</t>
@@ -494,7 +494,7 @@
     <t>Necropsy lesions. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/necropsy-lesions-vs</t>
+    <t>https://example.org/fhir/ValueSet/necropsy-lesions-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.surveillanceTypeAndInfectionSource</t>
@@ -518,7 +518,7 @@
     <t>Surveillance Type.  PASSIVE | ROUTINE | ACTIVE | PDS | CAHO | GDS | SENTINEL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/surveillance-type-vs</t>
+    <t>https://example.org/fhir/ValueSet/surveillance-type-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.infectionSource</t>
@@ -527,7 +527,7 @@
     <t>Infection Source.</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/infection-source-vs</t>
+    <t>https://example.org/fhir/ValueSet/infection-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis</t>
@@ -551,7 +551,7 @@
     <t>Disease Status. CONFIRMED | DENIED | SUSPECTED</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/disease-status-vs</t>
+    <t>https://example.org/fhir/ValueSet/disease-status-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.disease</t>
@@ -560,7 +560,7 @@
     <t>Disease</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/diseases-vs</t>
+    <t>https://example.org/fhir/ValueSet/diseases-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diseaseSubTypes</t>
@@ -569,7 +569,7 @@
     <t>Disease Subtype(s)</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/disease-subtype-vs</t>
+    <t>https://example.org/fhir/ValueSet/disease-subtype-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.clade</t>
@@ -578,7 +578,7 @@
     <t>Clade</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/clade-vs</t>
+    <t>https://example.org/fhir/ValueSet/clade-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diagnosticSource</t>
@@ -587,7 +587,7 @@
     <t>Diagnostic Source</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/diagnostic-source-vs</t>
+    <t>https://example.org/fhir/ValueSet/diagnostic-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diagnosisBasis</t>
@@ -596,7 +596,7 @@
     <t>Diagnosis Basis. CLINICAL_SIGNS | NECROPSY_LESIONS | LABORATORY_TEST | OTHERS</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/diagnosis-basis-vs</t>
+    <t>https://example.org/fhir/ValueSet/diagnosis-basis-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.controlMeasuresAndTreatments</t>
@@ -620,7 +620,7 @@
     <t>Control Measure. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/control-measures-vs</t>
+    <t>https://example.org/fhir/ValueSet/control-measures-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.controlMeasuresAndTreatments.treatments</t>
@@ -629,7 +629,7 @@
     <t>Treatments. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/treatments-vs</t>
+    <t>https://example.org/fhir/ValueSet/treatments-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.comment</t>
@@ -641,7 +641,7 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/Laboratory</t>
+    <t>https://example.org/fhir/StructureDefinition/Laboratory</t>
   </si>
   <si>
     <t>Logical Model - Laboratory</t>
@@ -665,7 +665,7 @@
     <t>Laboratory.laboratory</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/laboratory-vs</t>
+    <t>https://example.org/fhir/ValueSet/laboratory-vs</t>
   </si>
   <si>
     <t>Laboratory.otherLaboratory</t>
@@ -680,7 +680,7 @@
     <t>Lab Disease</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/lab-diseases-vs</t>
+    <t>https://example.org/fhir/ValueSet/lab-diseases-vs</t>
   </si>
   <si>
     <t>Laboratory.affectedSpecie</t>
@@ -701,7 +701,7 @@
     <t>Sample Type</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/sample-type-vs</t>
+    <t>https://example.org/fhir/ValueSet/sample-type-vs</t>
   </si>
   <si>
     <t>Laboratory.testType</t>
@@ -710,7 +710,7 @@
     <t>Test Type</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/test-type-vs</t>
+    <t>https://example.org/fhir/ValueSet/test-type-vs</t>
   </si>
   <si>
     <t>Laboratory.resultDate</t>
@@ -725,13 +725,13 @@
     <t>Test Result</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/test-result-vs</t>
+    <t>https://example.org/fhir/ValueSet/test-result-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
+    <t>https://example.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
   </si>
   <si>
     <t>Logical Model - Zoonosis Surveillance</t>
@@ -857,7 +857,7 @@
     <t>Admin Level 1</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/regions-vs</t>
+    <t>https://example.org/fhir/ValueSet/regions-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.adminLevel2</t>
@@ -866,7 +866,7 @@
     <t>Admin Level 2</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/districts-vs</t>
+    <t>https://example.org/fhir/ValueSet/districts-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.localitySource</t>
@@ -875,7 +875,7 @@
     <t>Locality Source</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/locality-source-vs</t>
+    <t>https://example.org/fhir/ValueSet/locality-source-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.localityQuality</t>
@@ -884,7 +884,7 @@
     <t>Locality Quality</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/locality-quality-vs</t>
+    <t>https://example.org/fhir/ValueSet/locality-quality-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.eventCoordinates</t>
@@ -896,7 +896,7 @@
     <t>ZoonosisSurveillance.animalSurveillance</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance
+    <t xml:space="preserve">https://example.org/fhir/StructureDefinition/AnimalSurveillance
 </t>
   </si>
   <si>
@@ -906,7 +906,7 @@
     <t>ZoonosisSurveillance.laboratory</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/Laboratory
+    <t xml:space="preserve">https://example.org/fhir/StructureDefinition/Laboratory
 </t>
   </si>
   <si>
@@ -1558,7 +1558,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="53.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="56.21875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T11:58:12+00:00</t>
+    <t>2024-04-17T13:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:28:15+00:00</t>
+    <t>2024-04-17T13:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://example.org/fhir/StructureDefinition/AnimalSurveillance</t>
+    <t>https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:33:19+00:00</t>
+    <t>2024-04-22T10:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/animal-class-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalSpecies</t>
@@ -382,7 +382,7 @@
     <t>Animal Species</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/animal-species-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalType</t>
@@ -391,7 +391,7 @@
     <t>Animal Type</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/animal-type-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalsAtRisk</t>
@@ -434,7 +434,7 @@
     <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/yes-no-unknown-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.vaccinated</t>
@@ -449,7 +449,7 @@
     <t>Production System One</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/production-system-one-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/production-system-one-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.productionSystemTwo</t>
@@ -458,7 +458,7 @@
     <t>Production System Two</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/production-system-two-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/production-system-two-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions</t>
@@ -485,7 +485,7 @@
     <t>Clinical signs. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/clinical-signs-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/clinical-signs-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.necropsyLesions</t>
@@ -494,7 +494,7 @@
     <t>Necropsy lesions. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/necropsy-lesions-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/necropsy-lesions-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.surveillanceTypeAndInfectionSource</t>
@@ -518,7 +518,7 @@
     <t>Surveillance Type.  PASSIVE | ROUTINE | ACTIVE | PDS | CAHO | GDS | SENTINEL</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/surveillance-type-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/surveillance-type-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.infectionSource</t>
@@ -527,7 +527,7 @@
     <t>Infection Source.</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/infection-source-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/infection-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis</t>
@@ -551,7 +551,7 @@
     <t>Disease Status. CONFIRMED | DENIED | SUSPECTED</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/disease-status-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/disease-status-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.disease</t>
@@ -560,7 +560,7 @@
     <t>Disease</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/diseases-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/diseases-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diseaseSubTypes</t>
@@ -569,7 +569,7 @@
     <t>Disease Subtype(s)</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/disease-subtype-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/disease-subtype-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.clade</t>
@@ -578,7 +578,7 @@
     <t>Clade</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/clade-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/clade-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diagnosticSource</t>
@@ -587,7 +587,7 @@
     <t>Diagnostic Source</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/diagnostic-source-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/diagnostic-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diagnosisBasis</t>
@@ -596,7 +596,7 @@
     <t>Diagnosis Basis. CLINICAL_SIGNS | NECROPSY_LESIONS | LABORATORY_TEST | OTHERS</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/diagnosis-basis-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/diagnosis-basis-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.controlMeasuresAndTreatments</t>
@@ -620,7 +620,7 @@
     <t>Control Measure. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/control-measures-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/control-measures-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.controlMeasuresAndTreatments.treatments</t>
@@ -629,7 +629,7 @@
     <t>Treatments. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/treatments-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/treatments-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.comment</t>
@@ -641,7 +641,7 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>https://example.org/fhir/StructureDefinition/Laboratory</t>
+    <t>https://dhis2.org/fhir/StructureDefinition/Laboratory</t>
   </si>
   <si>
     <t>Logical Model - Laboratory</t>
@@ -665,7 +665,7 @@
     <t>Laboratory.laboratory</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/laboratory-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/laboratory-vs</t>
   </si>
   <si>
     <t>Laboratory.otherLaboratory</t>
@@ -680,7 +680,7 @@
     <t>Lab Disease</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/lab-diseases-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/lab-diseases-vs</t>
   </si>
   <si>
     <t>Laboratory.affectedSpecie</t>
@@ -701,7 +701,7 @@
     <t>Sample Type</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/sample-type-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/sample-type-vs</t>
   </si>
   <si>
     <t>Laboratory.testType</t>
@@ -710,7 +710,7 @@
     <t>Test Type</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/test-type-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/test-type-vs</t>
   </si>
   <si>
     <t>Laboratory.resultDate</t>
@@ -725,13 +725,13 @@
     <t>Test Result</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/test-result-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/test-result-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance</t>
   </si>
   <si>
-    <t>https://example.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
+    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
   </si>
   <si>
     <t>Logical Model - Zoonosis Surveillance</t>
@@ -857,7 +857,7 @@
     <t>Admin Level 1</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/regions-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/regions-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.adminLevel2</t>
@@ -866,7 +866,7 @@
     <t>Admin Level 2</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/districts-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/districts-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.localitySource</t>
@@ -875,7 +875,7 @@
     <t>Locality Source</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/locality-source-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/locality-source-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.localityQuality</t>
@@ -884,7 +884,7 @@
     <t>Locality Quality</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/locality-quality-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/locality-quality-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.eventCoordinates</t>
@@ -896,7 +896,7 @@
     <t>ZoonosisSurveillance.animalSurveillance</t>
   </si>
   <si>
-    <t xml:space="preserve">https://example.org/fhir/StructureDefinition/AnimalSurveillance
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance
 </t>
   </si>
   <si>
@@ -906,7 +906,7 @@
     <t>ZoonosisSurveillance.laboratory</t>
   </si>
   <si>
-    <t xml:space="preserve">https://example.org/fhir/StructureDefinition/Laboratory
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/Laboratory
 </t>
   </si>
   <si>
@@ -1558,7 +1558,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="56.21875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="53.25390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T10:30:53+00:00</t>
+    <t>2024-04-22T11:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
